--- a/bad information mining/bookoutput.xlsx
+++ b/bad information mining/bookoutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A网络安全中心总文件\a多元多端不良信息检测\github\Bad-information-mining\bad information mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38334FC9-FAAA-4D04-B57D-9166EF80329F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABC191A-D6A8-4FE6-B069-6F2CBBCF1F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD49"/>
+      <selection activeCell="A2" sqref="A2:XFD198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -467,5 +467,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>